--- a/microservices/shared_data/doneOrders.xlsx
+++ b/microservices/shared_data/doneOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,46 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá phô mai sô cô la x2, bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>141000</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:41:57</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:05:23</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/doneOrders.xlsx
+++ b/microservices/shared_data/doneOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,26 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>06:14:25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/doneOrders.xlsx
+++ b/microservices/shared_data/doneOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,160 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bánh cá matcha x1</t>
+          <t>bánh cá matcha x2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:25:15</t>
+          <t>14:20:17</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20:25:38</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai x1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:54:20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:57:24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:55:53</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá phô mai sô cô la x2, bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>141000</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14:41:57</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15:05:23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>06:14:25</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>

--- a/microservices/shared_data/doneOrders.xlsx
+++ b/microservices/shared_data/doneOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,106 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02:23:13</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá bò khô x1, trà đào(size L) x1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02:32:04</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02:37:37</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, trà đào(size M) x1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02:49:17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x2, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>03:39:06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/doneOrders.xlsx
+++ b/microservices/shared_data/doneOrders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,26 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bánh cá trứng muối x2, trà đào(size M) x4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:27:36</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
